--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.18996275249774</v>
+        <v>0.03254066666666667</v>
       </c>
       <c r="H2">
-        <v>1.18996275249774</v>
+        <v>0.097622</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02633076257175775</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03898291886711458</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.50757625060042</v>
+        <v>1.098765</v>
       </c>
       <c r="N2">
-        <v>0.50757625060042</v>
+        <v>3.296295</v>
       </c>
       <c r="O2">
-        <v>0.02013030496299061</v>
+        <v>0.04219121913039277</v>
       </c>
       <c r="P2">
-        <v>0.02013030496299061</v>
+        <v>0.04777771124863077</v>
       </c>
       <c r="Q2">
-        <v>0.6039968322669584</v>
+        <v>0.03575454561</v>
       </c>
       <c r="R2">
-        <v>0.6039968322669584</v>
+        <v>0.32179091049</v>
       </c>
       <c r="S2">
-        <v>0.02013030496299061</v>
+        <v>0.001110926973535375</v>
       </c>
       <c r="T2">
-        <v>0.02013030496299061</v>
+        <v>0.001862514641261801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.18996275249774</v>
+        <v>0.03254066666666667</v>
       </c>
       <c r="H3">
-        <v>1.18996275249774</v>
+        <v>0.097622</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02633076257175775</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03898291886711458</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5852286044109</v>
+        <v>15.79937666666667</v>
       </c>
       <c r="N3">
-        <v>15.5852286044109</v>
+        <v>47.39813</v>
       </c>
       <c r="O3">
-        <v>0.6181049731022549</v>
+        <v>0.6066765532820465</v>
       </c>
       <c r="P3">
-        <v>0.6181049731022549</v>
+        <v>0.6870059169052114</v>
       </c>
       <c r="Q3">
-        <v>18.54584152841131</v>
+        <v>0.5141222496511112</v>
       </c>
       <c r="R3">
-        <v>18.54584152841131</v>
+        <v>4.62710024686</v>
       </c>
       <c r="S3">
-        <v>0.6181049731022549</v>
+        <v>0.0159742562823219</v>
       </c>
       <c r="T3">
-        <v>0.6181049731022549</v>
+        <v>0.02678149591994352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.03254066666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.097622</v>
+      </c>
+      <c r="I4">
+        <v>0.02633076257175775</v>
+      </c>
+      <c r="J4">
+        <v>0.03898291886711458</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.009167</v>
+      </c>
+      <c r="N4">
+        <v>0.027501</v>
+      </c>
+      <c r="O4">
+        <v>0.000352001479632415</v>
+      </c>
+      <c r="P4">
+        <v>0.0003986096017039115</v>
+      </c>
+      <c r="Q4">
+        <v>0.0002983002913333334</v>
+      </c>
+      <c r="R4">
+        <v>0.002684702622</v>
+      </c>
+      <c r="S4">
+        <v>9.26846738510854E-06</v>
+      </c>
+      <c r="T4">
+        <v>1.553896576287644E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.03254066666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.097622</v>
+      </c>
+      <c r="I5">
+        <v>0.02633076257175775</v>
+      </c>
+      <c r="J5">
+        <v>0.03898291886711458</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>9.1351955</v>
+      </c>
+      <c r="N5">
+        <v>18.270391</v>
+      </c>
+      <c r="O5">
+        <v>0.3507802261079284</v>
+      </c>
+      <c r="P5">
+        <v>0.264817762244454</v>
+      </c>
+      <c r="Q5">
+        <v>0.2972653517003334</v>
+      </c>
+      <c r="R5">
+        <v>1.783592110202</v>
+      </c>
+      <c r="S5">
+        <v>0.00923631084851536</v>
+      </c>
+      <c r="T5">
+        <v>0.01032336934014639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.2033015</v>
+      </c>
+      <c r="H6">
+        <v>2.406603</v>
+      </c>
+      <c r="I6">
+        <v>0.9736692374282422</v>
+      </c>
+      <c r="J6">
+        <v>0.9610170811328854</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.098765</v>
+      </c>
+      <c r="N6">
+        <v>3.296295</v>
+      </c>
+      <c r="O6">
+        <v>0.04219121913039277</v>
+      </c>
+      <c r="P6">
+        <v>0.04777771124863077</v>
+      </c>
+      <c r="Q6">
+        <v>1.3221455726475</v>
+      </c>
+      <c r="R6">
+        <v>7.932873435885</v>
+      </c>
+      <c r="S6">
+        <v>0.04108029215685739</v>
+      </c>
+      <c r="T6">
+        <v>0.04591519660736897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.18996275249774</v>
-      </c>
-      <c r="H4">
-        <v>1.18996275249774</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>9.12172873171747</v>
-      </c>
-      <c r="N4">
-        <v>9.12172873171747</v>
-      </c>
-      <c r="O4">
-        <v>0.3617647219347545</v>
-      </c>
-      <c r="P4">
-        <v>0.3617647219347545</v>
-      </c>
-      <c r="Q4">
-        <v>10.85451742913224</v>
-      </c>
-      <c r="R4">
-        <v>10.85451742913224</v>
-      </c>
-      <c r="S4">
-        <v>0.3617647219347545</v>
-      </c>
-      <c r="T4">
-        <v>0.3617647219347545</v>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.2033015</v>
+      </c>
+      <c r="H7">
+        <v>2.406603</v>
+      </c>
+      <c r="I7">
+        <v>0.9736692374282422</v>
+      </c>
+      <c r="J7">
+        <v>0.9610170811328854</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>15.79937666666667</v>
+      </c>
+      <c r="N7">
+        <v>47.39813</v>
+      </c>
+      <c r="O7">
+        <v>0.6066765532820465</v>
+      </c>
+      <c r="P7">
+        <v>0.6870059169052114</v>
+      </c>
+      <c r="Q7">
+        <v>19.011413642065</v>
+      </c>
+      <c r="R7">
+        <v>114.06848185239</v>
+      </c>
+      <c r="S7">
+        <v>0.5907022969997245</v>
+      </c>
+      <c r="T7">
+        <v>0.6602244209852679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.2033015</v>
+      </c>
+      <c r="H8">
+        <v>2.406603</v>
+      </c>
+      <c r="I8">
+        <v>0.9736692374282422</v>
+      </c>
+      <c r="J8">
+        <v>0.9610170811328854</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.009167</v>
+      </c>
+      <c r="N8">
+        <v>0.027501</v>
+      </c>
+      <c r="O8">
+        <v>0.000352001479632415</v>
+      </c>
+      <c r="P8">
+        <v>0.0003986096017039115</v>
+      </c>
+      <c r="Q8">
+        <v>0.0110306648505</v>
+      </c>
+      <c r="R8">
+        <v>0.06618398910300001</v>
+      </c>
+      <c r="S8">
+        <v>0.0003427330122473064</v>
+      </c>
+      <c r="T8">
+        <v>0.000383070635941035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.2033015</v>
+      </c>
+      <c r="H9">
+        <v>2.406603</v>
+      </c>
+      <c r="I9">
+        <v>0.9736692374282422</v>
+      </c>
+      <c r="J9">
+        <v>0.9610170811328854</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.1351955</v>
+      </c>
+      <c r="N9">
+        <v>18.270391</v>
+      </c>
+      <c r="O9">
+        <v>0.3507802261079284</v>
+      </c>
+      <c r="P9">
+        <v>0.264817762244454</v>
+      </c>
+      <c r="Q9">
+        <v>10.99239444794325</v>
+      </c>
+      <c r="R9">
+        <v>43.969577791773</v>
+      </c>
+      <c r="S9">
+        <v>0.341543915259413</v>
+      </c>
+      <c r="T9">
+        <v>0.2544943929043076</v>
       </c>
     </row>
   </sheetData>
